--- a/CaseAndFatalityDemographicsData/2021-05-28.xlsx
+++ b/CaseAndFatalityDemographicsData/2021-05-28.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\infect\NBS\Coronavirus(nCoV) 2019\Line Lists from Production\~Kenny Thursday Reports\5.20.21\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\infect\NBS\Coronavirus(nCoV) 2019\Line Lists from Production\~Kenny Thursday Reports\5.28.21\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{553A76DE-EC44-4602-BC8D-5B9D466AB2C4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA387601-5177-4E5F-8DAF-AA124B36B7AA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" tabRatio="806" xr2:uid="{A6E7ED99-6879-4496-BF23-313330724014}"/>
+    <workbookView xWindow="4785" yWindow="600" windowWidth="21600" windowHeight="11385" tabRatio="806" activeTab="4" xr2:uid="{A6E7ED99-6879-4496-BF23-313330724014}"/>
   </bookViews>
   <sheets>
     <sheet name="Cases by Age Group" sheetId="3" r:id="rId1"/>
@@ -134,7 +134,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -154,6 +154,19 @@
       <name val="Verdana"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -169,7 +182,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -192,12 +205,41 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFC1C1C1"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color rgb="FFC1C1C1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color rgb="FFC1C1C1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFC1C1C1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -231,6 +273,18 @@
     </xf>
     <xf numFmtId="164" fontId="2" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -549,16 +603,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DBBE98AD-F551-4399-A212-2161860B6EB7}">
   <dimension ref="A1:C15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.7" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="13.796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>27</v>
       </c>
@@ -569,151 +623,151 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="6">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="C2" s="9">
         <f>B2/$B$15</f>
-        <v>3.5083734019863955E-3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
+        <v>3.5098313016567913E-3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>3</v>
       </c>
       <c r="B3" s="6">
-        <v>1373</v>
+        <v>1380</v>
       </c>
       <c r="C3" s="9">
         <f t="shared" ref="C3:C15" si="0">B3/$B$15</f>
-        <v>1.7327326190386048E-2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
+        <v>1.7360455900667999E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B4" s="6">
-        <v>3775</v>
+        <v>3811</v>
       </c>
       <c r="C4" s="9">
         <f t="shared" si="0"/>
-        <v>4.764068198740519E-2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
+        <v>4.7942534374960689E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>5</v>
       </c>
       <c r="B5" s="6">
-        <v>15743</v>
+        <v>15788</v>
       </c>
       <c r="C5" s="9">
         <f t="shared" si="0"/>
-        <v>0.19867741894774038</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
+        <v>0.19861367953604811</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
         <v>6</v>
       </c>
       <c r="B6" s="6">
-        <v>17267</v>
+        <v>17312</v>
       </c>
       <c r="C6" s="9">
         <f t="shared" si="0"/>
-        <v>0.21791037241762262</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.45">
+        <v>0.21778566126982929</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
         <v>7</v>
       </c>
       <c r="B7" s="6">
-        <v>15148</v>
+        <v>15201</v>
       </c>
       <c r="C7" s="9">
         <f t="shared" si="0"/>
-        <v>0.19116849026363281</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.45">
+        <v>0.19122919575801034</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
         <v>8</v>
       </c>
       <c r="B8" s="6">
-        <v>12785</v>
+        <v>12822</v>
       </c>
       <c r="C8" s="9">
         <f t="shared" si="0"/>
-        <v>0.16134731634674845</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.45">
+        <v>0.16130127939011962</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
         <v>9</v>
       </c>
       <c r="B9" s="6">
-        <v>4626</v>
+        <v>4638</v>
       </c>
       <c r="C9" s="9">
         <f t="shared" si="0"/>
-        <v>5.8380343012910306E-2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.45">
+        <v>5.8346227874853759E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
         <v>10</v>
       </c>
       <c r="B10" s="6">
-        <v>3132</v>
+        <v>3141</v>
       </c>
       <c r="C10" s="9">
         <f t="shared" si="0"/>
-        <v>3.9525990989285581E-2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.45">
+        <v>3.9513907234781299E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
         <v>11</v>
       </c>
       <c r="B11" s="6">
-        <v>1900</v>
+        <v>1904</v>
       </c>
       <c r="C11" s="9">
         <f t="shared" si="0"/>
-        <v>2.3978091596309897E-2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.45">
+        <v>2.3952397126718747E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B12" s="6">
-        <v>1251</v>
+        <v>1253</v>
       </c>
       <c r="C12" s="9">
         <f t="shared" si="0"/>
-        <v>1.5787680308938779E-2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.45">
+        <v>1.5762790756186234E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
         <v>13</v>
       </c>
       <c r="B13" s="6">
-        <v>1948</v>
+        <v>1949</v>
       </c>
       <c r="C13" s="9">
         <f t="shared" si="0"/>
-        <v>2.4583853910321939E-2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.45">
+        <v>2.4518498949566616E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
         <v>14</v>
       </c>
@@ -722,16 +776,16 @@
       </c>
       <c r="C14" s="9">
         <f t="shared" si="0"/>
-        <v>1.6406062671159405E-4</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.45">
+        <v>1.6354052660049565E-4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>15</v>
       </c>
       <c r="B15" s="1">
         <f>SUM(B2:B14)</f>
-        <v>79239</v>
+        <v>79491</v>
       </c>
       <c r="C15" s="8">
         <f t="shared" si="0"/>
@@ -740,20 +794,21 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB138E10-A78A-4DC8-A42A-79AF36BFE66D}">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:I5"/>
   <sheetViews>
     <sheetView zoomScale="84" zoomScaleNormal="50" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+      <selection activeCell="B2" sqref="B2:C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.7" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -764,54 +819,70 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:9" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>16</v>
       </c>
       <c r="B2" s="6">
-        <v>26953</v>
+        <v>27080</v>
       </c>
       <c r="C2" s="9">
         <f>B2/$B$5</f>
-        <v>0.34014815936596876</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
+        <v>0.34066749694934018</v>
+      </c>
+      <c r="F2" s="17"/>
+      <c r="G2" s="15"/>
+      <c r="H2" s="15"/>
+      <c r="I2" s="15"/>
+    </row>
+    <row r="3" spans="1:9" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>17</v>
       </c>
       <c r="B3" s="6">
-        <v>51387</v>
+        <v>51513</v>
       </c>
       <c r="C3" s="9">
         <f t="shared" ref="C3:C5" si="0">B3/$B$5</f>
-        <v>0.64850641729451408</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
+        <v>0.64803562667471792</v>
+      </c>
+      <c r="F3" s="16"/>
+      <c r="G3" s="14"/>
+      <c r="H3" s="14"/>
+      <c r="I3" s="14"/>
+    </row>
+    <row r="4" spans="1:9" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>18</v>
       </c>
       <c r="B4" s="6">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="C4" s="9">
         <f t="shared" si="0"/>
-        <v>1.1345423339517158E-2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
+        <v>1.1296876375941931E-2</v>
+      </c>
+      <c r="F4" s="16"/>
+      <c r="G4" s="14"/>
+      <c r="H4" s="14"/>
+      <c r="I4" s="14"/>
+    </row>
+    <row r="5" spans="1:9" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>15</v>
       </c>
       <c r="B5" s="1">
         <f>SUM(B2:B4)</f>
-        <v>79239</v>
+        <v>79491</v>
       </c>
       <c r="C5" s="8">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
+      <c r="F5" s="16"/>
+      <c r="G5" s="14"/>
+      <c r="H5" s="14"/>
+      <c r="I5" s="14"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -823,15 +894,15 @@
   <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.7" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="13.87890625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.8984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>19</v>
       </c>
@@ -842,85 +913,85 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>23</v>
       </c>
       <c r="B2" s="6">
-        <v>956</v>
+        <v>27756</v>
       </c>
       <c r="C2" s="9">
         <f>B2/$B$8</f>
-        <v>1.2064766087406455E-2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
+        <v>0.34917160433256594</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>21</v>
       </c>
       <c r="B3" s="6">
-        <v>13013</v>
+        <v>13049</v>
       </c>
       <c r="C3" s="9">
         <f t="shared" ref="C3:C8" si="0">B3/$B$8</f>
-        <v>0.16422468733830564</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
+        <v>0.16415694858537444</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>22</v>
       </c>
       <c r="B4" s="6">
-        <v>28372</v>
+        <v>28467</v>
       </c>
       <c r="C4" s="9">
         <f t="shared" si="0"/>
-        <v>0.35805600777394969</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
+        <v>0.35811601313356228</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>25</v>
       </c>
       <c r="B5" s="6">
-        <v>565</v>
+        <v>963</v>
       </c>
       <c r="C5" s="9">
         <f t="shared" si="0"/>
-        <v>7.1303272378500484E-3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
+        <v>1.2114579008944408E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
         <v>20</v>
       </c>
       <c r="B6" s="6">
-        <v>27678</v>
+        <v>577</v>
       </c>
       <c r="C6" s="9">
         <f t="shared" si="0"/>
-        <v>0.34929769431719226</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.45">
+        <v>7.2586833729604613E-3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
         <v>18</v>
       </c>
       <c r="B7" s="6">
-        <v>8655</v>
+        <v>8679</v>
       </c>
       <c r="C7" s="9">
         <f t="shared" si="0"/>
-        <v>0.10922651724529588</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.45">
+        <v>0.10918217156659245</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>15</v>
       </c>
       <c r="B8" s="1">
         <f>SUM(B2:B7)</f>
-        <v>79239</v>
+        <v>79491</v>
       </c>
       <c r="C8" s="8">
         <f t="shared" si="0"/>
@@ -937,15 +1008,15 @@
   <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.7" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="13.796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>27</v>
       </c>
@@ -956,7 +1027,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
@@ -965,22 +1036,22 @@
       </c>
       <c r="C2" s="9">
         <f>B2/$B$15</f>
-        <v>1.3973729388749151E-4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
+        <v>1.3899644566231807E-4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>3</v>
       </c>
       <c r="B3" s="6">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C3" s="9">
         <f t="shared" ref="C3:C15" si="0">B3/$B$15</f>
-        <v>2.3954964666427118E-4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
+        <v>2.5813625623001925E-4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>4</v>
       </c>
@@ -989,118 +1060,118 @@
       </c>
       <c r="C4" s="9">
         <f t="shared" si="0"/>
-        <v>6.5876152832674575E-4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
+        <v>6.552689581223566E-4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>5</v>
       </c>
       <c r="B5" s="6">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="C5" s="9">
         <f t="shared" si="0"/>
-        <v>5.0704675210604061E-3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
+        <v>5.1230118544111514E-3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
         <v>6</v>
       </c>
       <c r="B6" s="6">
-        <v>850</v>
+        <v>860</v>
       </c>
       <c r="C6" s="9">
         <f t="shared" si="0"/>
-        <v>1.696809997205254E-2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.45">
+        <v>1.7076706181370506E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
         <v>7</v>
       </c>
       <c r="B7" s="6">
-        <v>2481</v>
+        <v>2502</v>
       </c>
       <c r="C7" s="9">
         <f t="shared" si="0"/>
-        <v>4.9526889447838063E-2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.45">
+        <v>4.9681301006731397E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
         <v>8</v>
       </c>
       <c r="B8" s="6">
-        <v>5646</v>
+        <v>5702</v>
       </c>
       <c r="C8" s="9">
         <f t="shared" si="0"/>
-        <v>0.11270810875553959</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.45">
+        <v>0.11322253330950537</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
         <v>9</v>
       </c>
       <c r="B9" s="6">
-        <v>4723</v>
+        <v>4749</v>
       </c>
       <c r="C9" s="9">
         <f t="shared" si="0"/>
-        <v>9.4282748432946067E-2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.45">
+        <v>9.4299160064335502E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
         <v>10</v>
       </c>
       <c r="B10" s="6">
-        <v>6082</v>
+        <v>6111</v>
       </c>
       <c r="C10" s="9">
         <f t="shared" si="0"/>
-        <v>0.12141174591767477</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.45">
+        <v>0.12134389706320367</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
         <v>11</v>
       </c>
       <c r="B11" s="6">
-        <v>6710</v>
+        <v>6740</v>
       </c>
       <c r="C11" s="9">
         <f t="shared" si="0"/>
-        <v>0.1339481774264383</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.45">
+        <v>0.13383372053771767</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B12" s="6">
-        <v>6615</v>
+        <v>6648</v>
       </c>
       <c r="C12" s="9">
         <f t="shared" si="0"/>
-        <v>0.13205174272367948</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.45">
+        <v>0.13200691010901291</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
         <v>13</v>
       </c>
       <c r="B13" s="6">
-        <v>16681</v>
+        <v>16738</v>
       </c>
       <c r="C13" s="9">
         <f t="shared" si="0"/>
-        <v>0.3329939713338923</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.45">
+        <v>0.33236035821369708</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
         <v>18</v>
       </c>
@@ -1112,13 +1183,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" s="4" t="s">
         <v>24</v>
       </c>
       <c r="B15" s="7">
         <f>SUM(B2:B14)</f>
-        <v>50094</v>
+        <v>50361</v>
       </c>
       <c r="C15" s="12">
         <f t="shared" si="0"/>
@@ -1134,13 +1205,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C92BAF56-3443-4211-AC39-FD818DE6BEEB}">
   <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.7" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
         <v>2</v>
       </c>
@@ -1151,31 +1222,31 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>16</v>
       </c>
       <c r="B2" s="6">
-        <v>21015</v>
+        <v>21120</v>
       </c>
       <c r="C2" s="9">
         <f>B2/$B$5</f>
-        <v>0.41951131872080488</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
+        <v>0.41937213319830824</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>17</v>
       </c>
       <c r="B3" s="6">
-        <v>29078</v>
+        <v>29240</v>
       </c>
       <c r="C3" s="9">
         <f t="shared" ref="C3:C5" si="0">B3/$B$5</f>
-        <v>0.58046871880863971</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
+        <v>0.58060801016659713</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>18</v>
       </c>
@@ -1184,16 +1255,16 @@
       </c>
       <c r="C4" s="9">
         <f t="shared" si="0"/>
-        <v>1.9962470555355931E-5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
+        <v>1.9856635094616865E-5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>15</v>
       </c>
       <c r="B5" s="1">
         <f>SUM(B2:B4)</f>
-        <v>50094</v>
+        <v>50361</v>
       </c>
       <c r="C5" s="13">
         <f t="shared" si="0"/>
@@ -1210,15 +1281,15 @@
   <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+      <selection activeCell="O12" sqref="O12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.7" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="13.87890625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.8984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>19</v>
       </c>
@@ -1229,67 +1300,67 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="10" t="s">
         <v>23</v>
       </c>
       <c r="B2">
-        <v>1063</v>
+        <v>20500</v>
       </c>
       <c r="C2" s="9">
         <f>B2/$B$8</f>
-        <v>2.1220106200343355E-2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
+        <v>0.40706101943964573</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="10" t="s">
         <v>21</v>
       </c>
       <c r="B3">
-        <v>5062</v>
+        <v>5095</v>
       </c>
       <c r="C3" s="9">
         <f t="shared" ref="C3:C8" si="0">B3/$B$8</f>
-        <v>0.10105002595121172</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
+        <v>0.10116955580707293</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="10" t="s">
         <v>22</v>
       </c>
       <c r="B4">
-        <v>23282</v>
+        <v>23396</v>
       </c>
       <c r="C4" s="9">
         <f t="shared" si="0"/>
-        <v>0.46476623946979678</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
+        <v>0.4645658346736562</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="10" t="s">
         <v>25</v>
       </c>
       <c r="B5">
-        <v>273</v>
+        <v>1074</v>
       </c>
       <c r="C5" s="9">
         <f t="shared" si="0"/>
-        <v>5.4497544616121689E-3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
+        <v>2.1326026091618513E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="11" t="s">
         <v>20</v>
       </c>
       <c r="B6">
-        <v>20391</v>
+        <v>273</v>
       </c>
       <c r="C6" s="9">
         <f t="shared" si="0"/>
-        <v>0.40705473709426276</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.45">
+        <v>5.4208613808304044E-3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="10" t="s">
         <v>18</v>
       </c>
@@ -1298,16 +1369,16 @@
       </c>
       <c r="C7" s="9">
         <f t="shared" si="0"/>
-        <v>4.591368227731864E-4</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.45">
+        <v>4.5670260717618793E-4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B8" s="2">
         <f>SUM(B2:B7)</f>
-        <v>50094</v>
+        <v>50361</v>
       </c>
       <c r="C8" s="13">
         <f t="shared" si="0"/>
